--- a/static/events.xlsx
+++ b/static/events.xlsx
@@ -1054,7 +1054,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/agile-analysis-and-planning/0636920061988/0642572014247", "0642572014247")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/agile-analysis-and-planning/0636920061988/0642572014247", "0642572014247")</f>
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -1078,7 +1078,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/comptia-security-certification-sy0-701-bootcamp/0790145080680/0642572010931", "0642572010931")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/comptia-security-certification-sy0-701-bootcamp/0790145080680/0642572010931", "0642572010931")</f>
         <v>0</v>
       </c>
       <c r="B3" t="s">
@@ -1102,7 +1102,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/getting-smart-about-goals/0636920291053/0642572014027", "0642572014027")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/getting-smart-about-goals/0636920291053/0642572014027", "0642572014027")</f>
         <v>0</v>
       </c>
       <c r="B4" t="s">
@@ -1126,7 +1126,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/git-next-steps/0636920457459/0642572012639", "0642572012639")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/git-next-steps/0636920457459/0642572012639", "0642572012639")</f>
         <v>0</v>
       </c>
       <c r="B5" t="s">
@@ -1150,7 +1150,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/automated-machine-learning-and-deep-learning-with-python/0636920064090/0642572013767", "0642572013767")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/automated-machine-learning-and-deep-learning-with-python/0636920064090/0642572013767", "0642572013767")</f>
         <v>0</v>
       </c>
       <c r="B6" t="s">
@@ -1174,7 +1174,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/using-llms-for-software-engineering/0790145068817/0642572011134", "0642572011134")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/using-llms-for-software-engineering/0790145068817/0642572011134", "0642572011134")</f>
         <v>0</v>
       </c>
       <c r="B7" t="s">
@@ -1198,7 +1198,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/generative-ai-apis/0642572011171/0642572014354", "0642572014354")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/generative-ai-apis/0642572011171/0642572014354", "0642572014354")</f>
         <v>0</v>
       </c>
       <c r="B8" t="s">
@@ -1222,7 +1222,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/javascript-bootcamp/0790145084898/0642572014368", "0642572014368")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/javascript-bootcamp/0790145084898/0642572014368", "0642572014368")</f>
         <v>0</v>
       </c>
       <c r="B9" t="s">
@@ -1246,7 +1246,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/generative-ai-for-business-analysts-in-60-minutes/0642572002743/0642572009736", "0642572009736")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/generative-ai-for-business-analysts-in-60-minutes/0642572002743/0642572009736", "0642572009736")</f>
         <v>0</v>
       </c>
       <c r="B10" t="s">
@@ -1270,7 +1270,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/ai-powered-web-applications/0642572014610/0642572014609", "0642572014609")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/ai-powered-web-applications/0642572014610/0642572014609", "0642572014609")</f>
         <v>0</v>
       </c>
       <c r="B11" t="s">
@@ -1294,7 +1294,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/generative-ai-for-leaders-and-managers/0642572010775/0642572010781", "0642572010781")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/generative-ai-for-leaders-and-managers/0642572010775/0642572010781", "0642572010781")</f>
         <v>0</v>
       </c>
       <c r="B12" t="s">
@@ -1318,7 +1318,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/building-microservices-with-containers-kubernetes-and-istio/0636920408468/0642572014189", "0642572014189")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/building-microservices-with-containers-kubernetes-and-istio/0636920408468/0642572014189", "0642572014189")</f>
         <v>0</v>
       </c>
       <c r="B13" t="s">
@@ -1342,7 +1342,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/terraform-getting-started/0636920060088/0642572010441", "0642572010441")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/terraform-getting-started/0636920060088/0642572010441", "0642572010441")</f>
         <v>0</v>
       </c>
       <c r="B14" t="s">
@@ -1366,7 +1366,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/building-enterprise-apps-with-react/0636920064014/0642572014142", "0642572014142")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/building-enterprise-apps-with-react/0636920064014/0642572014142", "0642572014142")</f>
         <v>0</v>
       </c>
       <c r="B15" t="s">
@@ -1390,7 +1390,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/comparing-software-architectures/0636920055602/0642572012242", "0642572012242")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/comparing-software-architectures/0636920055602/0642572012242", "0642572012242")</f>
         <v>0</v>
       </c>
       <c r="B16" t="s">
@@ -1414,7 +1414,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/spring-and-spring-boot-in-3-weeks/0636920055088/0642572014071", "0642572014071")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/spring-and-spring-boot-in-3-weeks/0636920055088/0642572014071", "0642572014071")</f>
         <v>0</v>
       </c>
       <c r="B17" t="s">
@@ -1438,7 +1438,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/generative-ai-for-everyone/0636920097025/0642572009299", "0642572009299")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/generative-ai-for-everyone/0636920097025/0642572009299", "0642572009299")</f>
         <v>0</v>
       </c>
       <c r="B18" t="s">
@@ -1462,7 +1462,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/identity-and-access-management-fundamentals/0636920051144/0642572013676", "0642572013676")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/identity-and-access-management-fundamentals/0636920051144/0642572013676", "0642572013676")</f>
         <v>0</v>
       </c>
       <c r="B19" t="s">
@@ -1486,7 +1486,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/kubernetes-fundamentals-in-2-weekswith-interactivity/0642572005386/0642572013993", "0642572013993")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/kubernetes-fundamentals-in-2-weekswith-interactivity/0642572005386/0642572013993", "0642572013993")</f>
         <v>0</v>
       </c>
       <c r="B20" t="s">
@@ -1510,7 +1510,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/event-driven-architecture-and-data-boot-camp/0642572012410/0642572012409", "0642572012409")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/event-driven-architecture-and-data-boot-camp/0642572012410/0642572012409", "0642572012409")</f>
         <v>0</v>
       </c>
       <c r="B21" t="s">
@@ -1534,7 +1534,7 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/fundamentals-of-learning-learn-faster-and-better-using-neuroscience/0636920064594/0642572014257", "0642572014257")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/fundamentals-of-learning-learn-faster-and-better-using-neuroscience/0636920064594/0642572014257", "0642572014257")</f>
         <v>0</v>
       </c>
       <c r="B22" t="s">
@@ -1558,7 +1558,7 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/threat-hunting-with-wireshark-for-secops/0636920087438/0642572014285", "0642572014285")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/threat-hunting-with-wireshark-for-secops/0636920087438/0642572014285", "0642572014285")</f>
         <v>0</v>
       </c>
       <c r="B23" t="s">
@@ -1582,7 +1582,7 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/python-machine-learning-with-scikit-learn/0642572008419/0642572014146", "0642572014146")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/python-machine-learning-with-scikit-learn/0642572008419/0642572014146", "0642572014146")</f>
         <v>0</v>
       </c>
       <c r="B24" t="s">
@@ -1606,7 +1606,7 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/rag-and-ai-applications-for-cybersecurity-and-networking-professionals/0642572008474/0642572014233", "0642572014233")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/rag-and-ai-applications-for-cybersecurity-and-networking-professionals/0642572008474/0642572014233", "0642572014233")</f>
         <v>0</v>
       </c>
       <c r="B25" t="s">
@@ -1630,7 +1630,7 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/fundamentals-of-ansible/0642572000977/0642572012631", "0642572012631")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/fundamentals-of-ansible/0642572000977/0642572012631", "0642572012631")</f>
         <v>0</v>
       </c>
       <c r="B26" t="s">
@@ -1654,7 +1654,7 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/chatgpt-for-software-engineers/0636920090062/0642572012935", "0642572012935")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/chatgpt-for-software-engineers/0636920090062/0642572012935", "0642572012935")</f>
         <v>0</v>
       </c>
       <c r="B27" t="s">
@@ -1678,7 +1678,7 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/leadership-communication-skills-for-managers/0636920054671/0642572011692", "0642572011692")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/leadership-communication-skills-for-managers/0636920054671/0642572011692", "0642572011692")</f>
         <v>0</v>
       </c>
       <c r="B28" t="s">
@@ -1702,7 +1702,7 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/write-python-code-with-chatgpt-and-claude/0642572013449/0642572013448", "0642572013448")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/write-python-code-with-chatgpt-and-claude/0642572013449/0642572013448", "0642572013448")</f>
         <v>0</v>
       </c>
       <c r="B29" t="s">
@@ -1726,7 +1726,7 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/bias-and-fairness-in-data-and-ai/0642572013881/0642572013880", "0642572013880")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/bias-and-fairness-in-data-and-ai/0642572013881/0642572013880", "0642572013880")</f>
         <v>0</v>
       </c>
       <c r="B30" t="s">
@@ -1750,7 +1750,7 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/how-llms-work/0790145066962/0642572010489", "0642572010489")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/how-llms-work/0790145066962/0642572010489", "0642572010489")</f>
         <v>0</v>
       </c>
       <c r="B31" t="s">
@@ -1774,7 +1774,7 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/modern-java-testing-with-junit-5-and-assertj/0642572014302/0642572014301", "0642572014301")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/modern-java-testing-with-junit-5-and-assertj/0642572014302/0642572014301", "0642572014301")</f>
         <v>0</v>
       </c>
       <c r="B32" t="s">
@@ -1798,7 +1798,7 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/chatgpt-for-project-management/0790145085649/0642572009109", "0642572009109")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/chatgpt-for-project-management/0790145085649/0642572009109", "0642572009109")</f>
         <v>0</v>
       </c>
       <c r="B33" t="s">
@@ -1822,7 +1822,7 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/iterative-architecture-by-example/0790145082232/0642572015138", "0642572015138")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/iterative-architecture-by-example/0790145082232/0642572015138", "0642572015138")</f>
         <v>0</v>
       </c>
       <c r="B34" t="s">
@@ -1846,7 +1846,7 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/building-simple-web-apps-with-ai-tools/0642572013427/0642572013426", "0642572013426")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/building-simple-web-apps-with-ai-tools/0642572013427/0642572013426", "0642572013426")</f>
         <v>0</v>
       </c>
       <c r="B35" t="s">
@@ -1870,7 +1870,7 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/artificial-intelligence/0636920054812/0642572011880", "0642572011880")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/artificial-intelligence/0636920054812/0642572011880", "0642572011880")</f>
         <v>0</v>
       </c>
       <c r="B36" t="s">
@@ -1894,7 +1894,7 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/genai-and-llms-for-product-managers/0636920099564/0642572009539", "0642572009539")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/genai-and-llms-for-product-managers/0636920099564/0642572009539", "0642572009539")</f>
         <v>0</v>
       </c>
       <c r="B37" t="s">
@@ -1918,7 +1918,7 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/prompting-bootcamp/0636920097098/0642572010296", "0642572010296")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/prompting-bootcamp/0636920097098/0642572010296", "0642572010296")</f>
         <v>0</v>
       </c>
       <c r="B38" t="s">
@@ -1942,7 +1942,7 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/perfecting-your-chatgpt-prompts/0642572007492/0642572010473", "0642572010473")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/perfecting-your-chatgpt-prompts/0642572007492/0642572010473", "0642572010473")</f>
         <v>0</v>
       </c>
       <c r="B39" t="s">
@@ -1966,7 +1966,7 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/using-generative-ai-to-land-your-next-job/0790145067802/0642572009510", "0642572009510")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/using-generative-ai-to-land-your-next-job/0790145067802/0642572009510", "0642572009510")</f>
         <v>0</v>
       </c>
       <c r="B40" t="s">
@@ -1990,7 +1990,7 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/python-in-5-weeks-python-programming-for-beginnerswith-interactivity/0636920054111/0642572011276", "0642572011276")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/python-in-5-weeks-python-programming-for-beginnerswith-interactivity/0636920054111/0642572011276", "0642572011276")</f>
         <v>0</v>
       </c>
       <c r="B41" t="s">
@@ -2014,7 +2014,7 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/using-generative-ai-to-boost-your-personal-productivity/0636920099736/0642572009052", "0642572009052")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/using-generative-ai-to-boost-your-personal-productivity/0636920099736/0642572009052", "0642572009052")</f>
         <v>0</v>
       </c>
       <c r="B42" t="s">
@@ -2038,7 +2038,7 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/introduction-to-technical-product-management/0636920385462/0642572015004", "0642572015004")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/introduction-to-technical-product-management/0636920385462/0642572015004", "0642572015004")</f>
         <v>0</v>
       </c>
       <c r="B43" t="s">
@@ -2062,7 +2062,7 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/prompt-engineering-for-generating-ai-art-and-text/0636920084340/0642572009579", "0642572009579")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/prompt-engineering-for-generating-ai-art-and-text/0636920084340/0642572009579", "0642572009579")</f>
         <v>0</v>
       </c>
       <c r="B44" t="s">
@@ -2086,7 +2086,7 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/generative-ai-for-project-management/0636920097360/0642572014638", "0642572014638")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/generative-ai-for-project-management/0636920097360/0642572014638", "0642572014638")</f>
         <v>0</v>
       </c>
       <c r="B45" t="s">
@@ -2110,7 +2110,7 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/choosing-the-right-llm/0642572002832/0642572010497", "0642572010497")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/choosing-the-right-llm/0642572002832/0642572010497", "0642572010497")</f>
         <v>0</v>
       </c>
       <c r="B46" t="s">
@@ -2134,7 +2134,7 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/copilot-for-microsoft-365/0642572007490/0642572009991", "0642572009991")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/copilot-for-microsoft-365/0642572007490/0642572009991", "0642572009991")</f>
         <v>0</v>
       </c>
       <c r="B47" t="s">
@@ -2158,7 +2158,7 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/product-design-with-genai/0642572003764/0642572009690", "0642572009690")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/product-design-with-genai/0642572003764/0642572009690", "0642572009690")</f>
         <v>0</v>
       </c>
       <c r="B48" t="s">
@@ -2182,7 +2182,7 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/sql-next-steps-optimization/0636920378389/0642572015359", "0642572015359")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/sql-next-steps-optimization/0636920378389/0642572015359", "0642572015359")</f>
         <v>0</v>
       </c>
       <c r="B49" t="s">
@@ -2206,7 +2206,7 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/generative-ai-for-everyone/0636920097025/0642572009303", "0642572009303")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/generative-ai-for-everyone/0636920097025/0642572009303", "0642572009303")</f>
         <v>0</v>
       </c>
       <c r="B50" t="s">
@@ -2230,7 +2230,7 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/chatgpt-to-improve-your-writing/0636920097362/0642572009092", "0642572009092")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/chatgpt-to-improve-your-writing/0636920097362/0642572009092", "0642572009092")</f>
         <v>0</v>
       </c>
       <c r="B51" t="s">
@@ -2254,7 +2254,7 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/generative-ai-for-business-analysts-in-60-minutes/0642572002743/0642572009740", "0642572009740")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/generative-ai-for-business-analysts-in-60-minutes/0642572002743/0642572009740", "0642572009740")</f>
         <v>0</v>
       </c>
       <c r="B52" t="s">
@@ -2278,7 +2278,7 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/writing-effective-prompts-for-chatgpt/0636920090058/0642572009674", "0642572009674")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/writing-effective-prompts-for-chatgpt/0636920090058/0642572009674", "0642572009674")</f>
         <v>0</v>
       </c>
       <c r="B53" t="s">
@@ -2302,7 +2302,7 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/cursor-for-software-engineers/0642572012981/0642572014700", "0642572014700")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/cursor-for-software-engineers/0642572012981/0642572014700", "0642572014700")</f>
         <v>0</v>
       </c>
       <c r="B54" t="s">
@@ -2326,7 +2326,7 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/infrastructure-ops-superstream-ai-infrastructure/0642572013986/0642572013985", "0642572013985")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/infrastructure-ops-superstream-ai-infrastructure/0642572013986/0642572013985", "0642572013985")</f>
         <v>0</v>
       </c>
       <c r="B55" t="s">
@@ -2347,7 +2347,7 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/chatgpt-for-project-management/0790145085649/0642572009114", "0642572009114")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/chatgpt-for-project-management/0790145085649/0642572009114", "0642572009114")</f>
         <v>0</v>
       </c>
       <c r="B56" t="s">
@@ -2371,7 +2371,7 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/generative-ai-for-presentations/0642572010259/0642572010280", "0642572010280")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/generative-ai-for-presentations/0642572010259/0642572010280", "0642572010280")</f>
         <v>0</v>
       </c>
       <c r="B57" t="s">
@@ -2395,7 +2395,7 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/prompting-bootcamp/0636920097098/0642572010302", "0642572010302")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/prompting-bootcamp/0636920097098/0642572010302", "0642572010302")</f>
         <v>0</v>
       </c>
       <c r="B58" t="s">
@@ -2419,7 +2419,7 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/software-architecture-superstream-communicating-software-architecture/0642572014524/0642572014523", "0642572014523")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/software-architecture-superstream-communicating-software-architecture/0642572014524/0642572014523", "0642572014523")</f>
         <v>0</v>
       </c>
       <c r="B59" t="s">
@@ -2443,7 +2443,7 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/genai-superstream-generative-ai-for-data-analysis/0642572015364/0642572015363", "0642572015363")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/genai-superstream-generative-ai-for-data-analysis/0642572015364/0642572015363", "0642572015363")</f>
         <v>0</v>
       </c>
       <c r="B60" t="s">
@@ -2464,7 +2464,7 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/agile-analysis-and-planning/0636920061988/0642572014247", "0642572014247")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/agile-analysis-and-planning/0636920061988/0642572014247", "0642572014247")</f>
         <v>0</v>
       </c>
       <c r="B61" t="s">
@@ -2488,7 +2488,7 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/comptia-security-certification-sy0-701-bootcamp/0790145080680/0642572010931", "0642572010931")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/comptia-security-certification-sy0-701-bootcamp/0790145080680/0642572010931", "0642572010931")</f>
         <v>0</v>
       </c>
       <c r="B62" t="s">
@@ -2512,7 +2512,7 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/getting-smart-about-goals/0636920291053/0642572014027", "0642572014027")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/getting-smart-about-goals/0636920291053/0642572014027", "0642572014027")</f>
         <v>0</v>
       </c>
       <c r="B63" t="s">
@@ -2536,7 +2536,7 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/git-next-steps/0636920457459/0642572012639", "0642572012639")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/git-next-steps/0636920457459/0642572012639", "0642572012639")</f>
         <v>0</v>
       </c>
       <c r="B64" t="s">
@@ -2560,7 +2560,7 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/automated-machine-learning-and-deep-learning-with-python/0636920064090/0642572013767", "0642572013767")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/automated-machine-learning-and-deep-learning-with-python/0636920064090/0642572013767", "0642572013767")</f>
         <v>0</v>
       </c>
       <c r="B65" t="s">
@@ -2584,7 +2584,7 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/using-llms-for-software-engineering/0790145068817/0642572011134", "0642572011134")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/using-llms-for-software-engineering/0790145068817/0642572011134", "0642572011134")</f>
         <v>0</v>
       </c>
       <c r="B66" t="s">
@@ -2608,7 +2608,7 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/generative-ai-apis/0642572011171/0642572014354", "0642572014354")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/generative-ai-apis/0642572011171/0642572014354", "0642572014354")</f>
         <v>0</v>
       </c>
       <c r="B67" t="s">
@@ -2632,7 +2632,7 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/javascript-bootcamp/0790145084898/0642572014368", "0642572014368")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/javascript-bootcamp/0790145084898/0642572014368", "0642572014368")</f>
         <v>0</v>
       </c>
       <c r="B68" t="s">
@@ -2656,7 +2656,7 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/generative-ai-for-business-analysts-in-60-minutes/0642572002743/0642572009736", "0642572009736")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/generative-ai-for-business-analysts-in-60-minutes/0642572002743/0642572009736", "0642572009736")</f>
         <v>0</v>
       </c>
       <c r="B69" t="s">
@@ -2680,7 +2680,7 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/ai-powered-web-applications/0642572014610/0642572014609", "0642572014609")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/ai-powered-web-applications/0642572014610/0642572014609", "0642572014609")</f>
         <v>0</v>
       </c>
       <c r="B70" t="s">
@@ -2704,7 +2704,7 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/generative-ai-for-leaders-and-managers/0642572010775/0642572010781", "0642572010781")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/generative-ai-for-leaders-and-managers/0642572010775/0642572010781", "0642572010781")</f>
         <v>0</v>
       </c>
       <c r="B71" t="s">
@@ -2728,7 +2728,7 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/building-microservices-with-containers-kubernetes-and-istio/0636920408468/0642572014189", "0642572014189")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/building-microservices-with-containers-kubernetes-and-istio/0636920408468/0642572014189", "0642572014189")</f>
         <v>0</v>
       </c>
       <c r="B72" t="s">
@@ -2752,7 +2752,7 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/terraform-getting-started/0636920060088/0642572010441", "0642572010441")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/terraform-getting-started/0636920060088/0642572010441", "0642572010441")</f>
         <v>0</v>
       </c>
       <c r="B73" t="s">
@@ -2776,7 +2776,7 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/building-enterprise-apps-with-react/0636920064014/0642572014142", "0642572014142")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/building-enterprise-apps-with-react/0636920064014/0642572014142", "0642572014142")</f>
         <v>0</v>
       </c>
       <c r="B74" t="s">
@@ -2800,7 +2800,7 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/comparing-software-architectures/0636920055602/0642572012242", "0642572012242")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/comparing-software-architectures/0636920055602/0642572012242", "0642572012242")</f>
         <v>0</v>
       </c>
       <c r="B75" t="s">
@@ -2824,7 +2824,7 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/spring-and-spring-boot-in-3-weeks/0636920055088/0642572014071", "0642572014071")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/spring-and-spring-boot-in-3-weeks/0636920055088/0642572014071", "0642572014071")</f>
         <v>0</v>
       </c>
       <c r="B76" t="s">
@@ -2848,7 +2848,7 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/generative-ai-for-everyone/0636920097025/0642572009299", "0642572009299")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/generative-ai-for-everyone/0636920097025/0642572009299", "0642572009299")</f>
         <v>0</v>
       </c>
       <c r="B77" t="s">
@@ -2872,7 +2872,7 @@
     </row>
     <row r="78" spans="1:7">
       <c r="A78">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/identity-and-access-management-fundamentals/0636920051144/0642572013676", "0642572013676")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/identity-and-access-management-fundamentals/0636920051144/0642572013676", "0642572013676")</f>
         <v>0</v>
       </c>
       <c r="B78" t="s">
@@ -2896,7 +2896,7 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/kubernetes-fundamentals-in-2-weekswith-interactivity/0642572005386/0642572013993", "0642572013993")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/kubernetes-fundamentals-in-2-weekswith-interactivity/0642572005386/0642572013993", "0642572013993")</f>
         <v>0</v>
       </c>
       <c r="B79" t="s">
@@ -2920,7 +2920,7 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/event-driven-architecture-and-data-boot-camp/0642572012410/0642572012409", "0642572012409")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/event-driven-architecture-and-data-boot-camp/0642572012410/0642572012409", "0642572012409")</f>
         <v>0</v>
       </c>
       <c r="B80" t="s">
@@ -2944,7 +2944,7 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/fundamentals-of-learning-learn-faster-and-better-using-neuroscience/0636920064594/0642572014257", "0642572014257")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/fundamentals-of-learning-learn-faster-and-better-using-neuroscience/0636920064594/0642572014257", "0642572014257")</f>
         <v>0</v>
       </c>
       <c r="B81" t="s">
@@ -2968,7 +2968,7 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/threat-hunting-with-wireshark-for-secops/0636920087438/0642572014285", "0642572014285")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/threat-hunting-with-wireshark-for-secops/0636920087438/0642572014285", "0642572014285")</f>
         <v>0</v>
       </c>
       <c r="B82" t="s">
@@ -2992,7 +2992,7 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/python-machine-learning-with-scikit-learn/0642572008419/0642572014146", "0642572014146")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/python-machine-learning-with-scikit-learn/0642572008419/0642572014146", "0642572014146")</f>
         <v>0</v>
       </c>
       <c r="B83" t="s">
@@ -3016,7 +3016,7 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/rag-and-ai-applications-for-cybersecurity-and-networking-professionals/0642572008474/0642572014233", "0642572014233")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/rag-and-ai-applications-for-cybersecurity-and-networking-professionals/0642572008474/0642572014233", "0642572014233")</f>
         <v>0</v>
       </c>
       <c r="B84" t="s">
@@ -3040,7 +3040,7 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/fundamentals-of-ansible/0642572000977/0642572012631", "0642572012631")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/fundamentals-of-ansible/0642572000977/0642572012631", "0642572012631")</f>
         <v>0</v>
       </c>
       <c r="B85" t="s">
@@ -3064,7 +3064,7 @@
     </row>
     <row r="86" spans="1:7">
       <c r="A86">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/chatgpt-for-software-engineers/0636920090062/0642572012935", "0642572012935")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/chatgpt-for-software-engineers/0636920090062/0642572012935", "0642572012935")</f>
         <v>0</v>
       </c>
       <c r="B86" t="s">
@@ -3088,7 +3088,7 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/leadership-communication-skills-for-managers/0636920054671/0642572011692", "0642572011692")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/leadership-communication-skills-for-managers/0636920054671/0642572011692", "0642572011692")</f>
         <v>0</v>
       </c>
       <c r="B87" t="s">
@@ -3112,7 +3112,7 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/write-python-code-with-chatgpt-and-claude/0642572013449/0642572013448", "0642572013448")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/write-python-code-with-chatgpt-and-claude/0642572013449/0642572013448", "0642572013448")</f>
         <v>0</v>
       </c>
       <c r="B88" t="s">
@@ -3136,7 +3136,7 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/bias-and-fairness-in-data-and-ai/0642572013881/0642572013880", "0642572013880")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/bias-and-fairness-in-data-and-ai/0642572013881/0642572013880", "0642572013880")</f>
         <v>0</v>
       </c>
       <c r="B89" t="s">
@@ -3160,7 +3160,7 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/how-llms-work/0790145066962/0642572010489", "0642572010489")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/how-llms-work/0790145066962/0642572010489", "0642572010489")</f>
         <v>0</v>
       </c>
       <c r="B90" t="s">
@@ -3184,7 +3184,7 @@
     </row>
     <row r="91" spans="1:7">
       <c r="A91">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/modern-java-testing-with-junit-5-and-assertj/0642572014302/0642572014301", "0642572014301")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/modern-java-testing-with-junit-5-and-assertj/0642572014302/0642572014301", "0642572014301")</f>
         <v>0</v>
       </c>
       <c r="B91" t="s">
@@ -3208,7 +3208,7 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/chatgpt-for-project-management/0790145085649/0642572009109", "0642572009109")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/chatgpt-for-project-management/0790145085649/0642572009109", "0642572009109")</f>
         <v>0</v>
       </c>
       <c r="B92" t="s">
@@ -3232,7 +3232,7 @@
     </row>
     <row r="93" spans="1:7">
       <c r="A93">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/iterative-architecture-by-example/0790145082232/0642572015138", "0642572015138")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/iterative-architecture-by-example/0790145082232/0642572015138", "0642572015138")</f>
         <v>0</v>
       </c>
       <c r="B93" t="s">
@@ -3256,7 +3256,7 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/building-simple-web-apps-with-ai-tools/0642572013427/0642572013426", "0642572013426")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/building-simple-web-apps-with-ai-tools/0642572013427/0642572013426", "0642572013426")</f>
         <v>0</v>
       </c>
       <c r="B94" t="s">
@@ -3280,7 +3280,7 @@
     </row>
     <row r="95" spans="1:7">
       <c r="A95">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/artificial-intelligence/0636920054812/0642572011880", "0642572011880")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/artificial-intelligence/0636920054812/0642572011880", "0642572011880")</f>
         <v>0</v>
       </c>
       <c r="B95" t="s">
@@ -3304,7 +3304,7 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/genai-and-llms-for-product-managers/0636920099564/0642572009539", "0642572009539")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/genai-and-llms-for-product-managers/0636920099564/0642572009539", "0642572009539")</f>
         <v>0</v>
       </c>
       <c r="B96" t="s">
@@ -3328,7 +3328,7 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/prompting-bootcamp/0636920097098/0642572010296", "0642572010296")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/prompting-bootcamp/0636920097098/0642572010296", "0642572010296")</f>
         <v>0</v>
       </c>
       <c r="B97" t="s">
@@ -3352,7 +3352,7 @@
     </row>
     <row r="98" spans="1:7">
       <c r="A98">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/perfecting-your-chatgpt-prompts/0642572007492/0642572010473", "0642572010473")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/perfecting-your-chatgpt-prompts/0642572007492/0642572010473", "0642572010473")</f>
         <v>0</v>
       </c>
       <c r="B98" t="s">
@@ -3376,7 +3376,7 @@
     </row>
     <row r="99" spans="1:7">
       <c r="A99">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/using-generative-ai-to-land-your-next-job/0790145067802/0642572009510", "0642572009510")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/using-generative-ai-to-land-your-next-job/0790145067802/0642572009510", "0642572009510")</f>
         <v>0</v>
       </c>
       <c r="B99" t="s">
@@ -3400,7 +3400,7 @@
     </row>
     <row r="100" spans="1:7">
       <c r="A100">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/python-in-5-weeks-python-programming-for-beginnerswith-interactivity/0636920054111/0642572011276", "0642572011276")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/python-in-5-weeks-python-programming-for-beginnerswith-interactivity/0636920054111/0642572011276", "0642572011276")</f>
         <v>0</v>
       </c>
       <c r="B100" t="s">
@@ -3424,7 +3424,7 @@
     </row>
     <row r="101" spans="1:7">
       <c r="A101">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/using-generative-ai-to-boost-your-personal-productivity/0636920099736/0642572009052", "0642572009052")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/using-generative-ai-to-boost-your-personal-productivity/0636920099736/0642572009052", "0642572009052")</f>
         <v>0</v>
       </c>
       <c r="B101" t="s">
@@ -3448,7 +3448,7 @@
     </row>
     <row r="102" spans="1:7">
       <c r="A102">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/introduction-to-technical-product-management/0636920385462/0642572015004", "0642572015004")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/introduction-to-technical-product-management/0636920385462/0642572015004", "0642572015004")</f>
         <v>0</v>
       </c>
       <c r="B102" t="s">
@@ -3472,7 +3472,7 @@
     </row>
     <row r="103" spans="1:7">
       <c r="A103">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/prompt-engineering-for-generating-ai-art-and-text/0636920084340/0642572009579", "0642572009579")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/prompt-engineering-for-generating-ai-art-and-text/0636920084340/0642572009579", "0642572009579")</f>
         <v>0</v>
       </c>
       <c r="B103" t="s">
@@ -3496,7 +3496,7 @@
     </row>
     <row r="104" spans="1:7">
       <c r="A104">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/generative-ai-for-project-management/0636920097360/0642572014638", "0642572014638")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/generative-ai-for-project-management/0636920097360/0642572014638", "0642572014638")</f>
         <v>0</v>
       </c>
       <c r="B104" t="s">
@@ -3520,7 +3520,7 @@
     </row>
     <row r="105" spans="1:7">
       <c r="A105">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/choosing-the-right-llm/0642572002832/0642572010497", "0642572010497")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/choosing-the-right-llm/0642572002832/0642572010497", "0642572010497")</f>
         <v>0</v>
       </c>
       <c r="B105" t="s">
@@ -3544,7 +3544,7 @@
     </row>
     <row r="106" spans="1:7">
       <c r="A106">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/copilot-for-microsoft-365/0642572007490/0642572009991", "0642572009991")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/copilot-for-microsoft-365/0642572007490/0642572009991", "0642572009991")</f>
         <v>0</v>
       </c>
       <c r="B106" t="s">
@@ -3568,7 +3568,7 @@
     </row>
     <row r="107" spans="1:7">
       <c r="A107">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/product-design-with-genai/0642572003764/0642572009690", "0642572009690")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/product-design-with-genai/0642572003764/0642572009690", "0642572009690")</f>
         <v>0</v>
       </c>
       <c r="B107" t="s">
@@ -3592,7 +3592,7 @@
     </row>
     <row r="108" spans="1:7">
       <c r="A108">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/sql-next-steps-optimization/0636920378389/0642572015359", "0642572015359")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/sql-next-steps-optimization/0636920378389/0642572015359", "0642572015359")</f>
         <v>0</v>
       </c>
       <c r="B108" t="s">
@@ -3616,7 +3616,7 @@
     </row>
     <row r="109" spans="1:7">
       <c r="A109">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/generative-ai-for-everyone/0636920097025/0642572009303", "0642572009303")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/generative-ai-for-everyone/0636920097025/0642572009303", "0642572009303")</f>
         <v>0</v>
       </c>
       <c r="B109" t="s">
@@ -3640,7 +3640,7 @@
     </row>
     <row r="110" spans="1:7">
       <c r="A110">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/chatgpt-to-improve-your-writing/0636920097362/0642572009092", "0642572009092")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/chatgpt-to-improve-your-writing/0636920097362/0642572009092", "0642572009092")</f>
         <v>0</v>
       </c>
       <c r="B110" t="s">
@@ -3664,7 +3664,7 @@
     </row>
     <row r="111" spans="1:7">
       <c r="A111">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/generative-ai-for-business-analysts-in-60-minutes/0642572002743/0642572009740", "0642572009740")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/generative-ai-for-business-analysts-in-60-minutes/0642572002743/0642572009740", "0642572009740")</f>
         <v>0</v>
       </c>
       <c r="B111" t="s">
@@ -3688,7 +3688,7 @@
     </row>
     <row r="112" spans="1:7">
       <c r="A112">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/writing-effective-prompts-for-chatgpt/0636920090058/0642572009674", "0642572009674")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/writing-effective-prompts-for-chatgpt/0636920090058/0642572009674", "0642572009674")</f>
         <v>0</v>
       </c>
       <c r="B112" t="s">
@@ -3712,7 +3712,7 @@
     </row>
     <row r="113" spans="1:7">
       <c r="A113">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/cursor-for-software-engineers/0642572012981/0642572014700", "0642572014700")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/cursor-for-software-engineers/0642572012981/0642572014700", "0642572014700")</f>
         <v>0</v>
       </c>
       <c r="B113" t="s">
@@ -3736,7 +3736,7 @@
     </row>
     <row r="114" spans="1:7">
       <c r="A114">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/infrastructure-ops-superstream-ai-infrastructure/0642572013986/0642572013985", "0642572013985")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/infrastructure-ops-superstream-ai-infrastructure/0642572013986/0642572013985", "0642572013985")</f>
         <v>0</v>
       </c>
       <c r="B114" t="s">
@@ -3757,7 +3757,7 @@
     </row>
     <row r="115" spans="1:7">
       <c r="A115">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/chatgpt-for-project-management/0790145085649/0642572009114", "0642572009114")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/chatgpt-for-project-management/0790145085649/0642572009114", "0642572009114")</f>
         <v>0</v>
       </c>
       <c r="B115" t="s">
@@ -3781,7 +3781,7 @@
     </row>
     <row r="116" spans="1:7">
       <c r="A116">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/generative-ai-for-presentations/0642572010259/0642572010280", "0642572010280")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/generative-ai-for-presentations/0642572010259/0642572010280", "0642572010280")</f>
         <v>0</v>
       </c>
       <c r="B116" t="s">
@@ -3805,7 +3805,7 @@
     </row>
     <row r="117" spans="1:7">
       <c r="A117">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/prompting-bootcamp/0636920097098/0642572010302", "0642572010302")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/prompting-bootcamp/0636920097098/0642572010302", "0642572010302")</f>
         <v>0</v>
       </c>
       <c r="B117" t="s">
@@ -3829,7 +3829,7 @@
     </row>
     <row r="118" spans="1:7">
       <c r="A118">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/software-architecture-superstream-communicating-software-architecture/0642572014524/0642572014523", "0642572014523")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/software-architecture-superstream-communicating-software-architecture/0642572014524/0642572014523", "0642572014523")</f>
         <v>0</v>
       </c>
       <c r="B118" t="s">
@@ -3853,7 +3853,7 @@
     </row>
     <row r="119" spans="1:7">
       <c r="A119">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/genai-superstream-generative-ai-for-data-analysis/0642572015364/0642572015363", "0642572015363")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/genai-superstream-generative-ai-for-data-analysis/0642572015364/0642572015363", "0642572015363")</f>
         <v>0</v>
       </c>
       <c r="B119" t="s">
@@ -3874,7 +3874,7 @@
     </row>
     <row r="120" spans="1:7">
       <c r="A120">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/agile-analysis-and-planning/0636920061988/0642572014247", "0642572014247")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/agile-analysis-and-planning/0636920061988/0642572014247", "0642572014247")</f>
         <v>0</v>
       </c>
       <c r="B120" t="s">
@@ -3898,7 +3898,7 @@
     </row>
     <row r="121" spans="1:7">
       <c r="A121">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/comptia-security-certification-sy0-701-bootcamp/0790145080680/0642572010931", "0642572010931")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/comptia-security-certification-sy0-701-bootcamp/0790145080680/0642572010931", "0642572010931")</f>
         <v>0</v>
       </c>
       <c r="B121" t="s">
@@ -3922,7 +3922,7 @@
     </row>
     <row r="122" spans="1:7">
       <c r="A122">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/getting-smart-about-goals/0636920291053/0642572014027", "0642572014027")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/getting-smart-about-goals/0636920291053/0642572014027", "0642572014027")</f>
         <v>0</v>
       </c>
       <c r="B122" t="s">
@@ -3946,7 +3946,7 @@
     </row>
     <row r="123" spans="1:7">
       <c r="A123">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/git-next-steps/0636920457459/0642572012639", "0642572012639")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/git-next-steps/0636920457459/0642572012639", "0642572012639")</f>
         <v>0</v>
       </c>
       <c r="B123" t="s">
@@ -3970,7 +3970,7 @@
     </row>
     <row r="124" spans="1:7">
       <c r="A124">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/automated-machine-learning-and-deep-learning-with-python/0636920064090/0642572013767", "0642572013767")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/automated-machine-learning-and-deep-learning-with-python/0636920064090/0642572013767", "0642572013767")</f>
         <v>0</v>
       </c>
       <c r="B124" t="s">
@@ -3994,7 +3994,7 @@
     </row>
     <row r="125" spans="1:7">
       <c r="A125">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/using-llms-for-software-engineering/0790145068817/0642572011134", "0642572011134")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/using-llms-for-software-engineering/0790145068817/0642572011134", "0642572011134")</f>
         <v>0</v>
       </c>
       <c r="B125" t="s">
@@ -4018,7 +4018,7 @@
     </row>
     <row r="126" spans="1:7">
       <c r="A126">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/generative-ai-apis/0642572011171/0642572014354", "0642572014354")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/generative-ai-apis/0642572011171/0642572014354", "0642572014354")</f>
         <v>0</v>
       </c>
       <c r="B126" t="s">
@@ -4042,7 +4042,7 @@
     </row>
     <row r="127" spans="1:7">
       <c r="A127">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/javascript-bootcamp/0790145084898/0642572014368", "0642572014368")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/javascript-bootcamp/0790145084898/0642572014368", "0642572014368")</f>
         <v>0</v>
       </c>
       <c r="B127" t="s">
@@ -4066,7 +4066,7 @@
     </row>
     <row r="128" spans="1:7">
       <c r="A128">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/generative-ai-for-business-analysts-in-60-minutes/0642572002743/0642572009736", "0642572009736")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/generative-ai-for-business-analysts-in-60-minutes/0642572002743/0642572009736", "0642572009736")</f>
         <v>0</v>
       </c>
       <c r="B128" t="s">
@@ -4090,7 +4090,7 @@
     </row>
     <row r="129" spans="1:7">
       <c r="A129">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/ai-powered-web-applications/0642572014610/0642572014609", "0642572014609")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/ai-powered-web-applications/0642572014610/0642572014609", "0642572014609")</f>
         <v>0</v>
       </c>
       <c r="B129" t="s">
@@ -4114,7 +4114,7 @@
     </row>
     <row r="130" spans="1:7">
       <c r="A130">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/generative-ai-for-leaders-and-managers/0642572010775/0642572010781", "0642572010781")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/generative-ai-for-leaders-and-managers/0642572010775/0642572010781", "0642572010781")</f>
         <v>0</v>
       </c>
       <c r="B130" t="s">
@@ -4138,7 +4138,7 @@
     </row>
     <row r="131" spans="1:7">
       <c r="A131">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/building-microservices-with-containers-kubernetes-and-istio/0636920408468/0642572014189", "0642572014189")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/building-microservices-with-containers-kubernetes-and-istio/0636920408468/0642572014189", "0642572014189")</f>
         <v>0</v>
       </c>
       <c r="B131" t="s">
@@ -4162,7 +4162,7 @@
     </row>
     <row r="132" spans="1:7">
       <c r="A132">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/terraform-getting-started/0636920060088/0642572010441", "0642572010441")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/terraform-getting-started/0636920060088/0642572010441", "0642572010441")</f>
         <v>0</v>
       </c>
       <c r="B132" t="s">
@@ -4186,7 +4186,7 @@
     </row>
     <row r="133" spans="1:7">
       <c r="A133">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/building-enterprise-apps-with-react/0636920064014/0642572014142", "0642572014142")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/building-enterprise-apps-with-react/0636920064014/0642572014142", "0642572014142")</f>
         <v>0</v>
       </c>
       <c r="B133" t="s">
@@ -4210,7 +4210,7 @@
     </row>
     <row r="134" spans="1:7">
       <c r="A134">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/comparing-software-architectures/0636920055602/0642572012242", "0642572012242")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/comparing-software-architectures/0636920055602/0642572012242", "0642572012242")</f>
         <v>0</v>
       </c>
       <c r="B134" t="s">
@@ -4234,7 +4234,7 @@
     </row>
     <row r="135" spans="1:7">
       <c r="A135">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/spring-and-spring-boot-in-3-weeks/0636920055088/0642572014071", "0642572014071")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/spring-and-spring-boot-in-3-weeks/0636920055088/0642572014071", "0642572014071")</f>
         <v>0</v>
       </c>
       <c r="B135" t="s">
@@ -4258,7 +4258,7 @@
     </row>
     <row r="136" spans="1:7">
       <c r="A136">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/generative-ai-for-everyone/0636920097025/0642572009299", "0642572009299")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/generative-ai-for-everyone/0636920097025/0642572009299", "0642572009299")</f>
         <v>0</v>
       </c>
       <c r="B136" t="s">
@@ -4282,7 +4282,7 @@
     </row>
     <row r="137" spans="1:7">
       <c r="A137">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/identity-and-access-management-fundamentals/0636920051144/0642572013676", "0642572013676")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/identity-and-access-management-fundamentals/0636920051144/0642572013676", "0642572013676")</f>
         <v>0</v>
       </c>
       <c r="B137" t="s">
@@ -4306,7 +4306,7 @@
     </row>
     <row r="138" spans="1:7">
       <c r="A138">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/kubernetes-fundamentals-in-2-weekswith-interactivity/0642572005386/0642572013993", "0642572013993")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/kubernetes-fundamentals-in-2-weekswith-interactivity/0642572005386/0642572013993", "0642572013993")</f>
         <v>0</v>
       </c>
       <c r="B138" t="s">
@@ -4330,7 +4330,7 @@
     </row>
     <row r="139" spans="1:7">
       <c r="A139">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/event-driven-architecture-and-data-boot-camp/0642572012410/0642572012409", "0642572012409")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/event-driven-architecture-and-data-boot-camp/0642572012410/0642572012409", "0642572012409")</f>
         <v>0</v>
       </c>
       <c r="B139" t="s">
@@ -4354,7 +4354,7 @@
     </row>
     <row r="140" spans="1:7">
       <c r="A140">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/fundamentals-of-learning-learn-faster-and-better-using-neuroscience/0636920064594/0642572014257", "0642572014257")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/fundamentals-of-learning-learn-faster-and-better-using-neuroscience/0636920064594/0642572014257", "0642572014257")</f>
         <v>0</v>
       </c>
       <c r="B140" t="s">
@@ -4378,7 +4378,7 @@
     </row>
     <row r="141" spans="1:7">
       <c r="A141">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/threat-hunting-with-wireshark-for-secops/0636920087438/0642572014285", "0642572014285")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/threat-hunting-with-wireshark-for-secops/0636920087438/0642572014285", "0642572014285")</f>
         <v>0</v>
       </c>
       <c r="B141" t="s">
@@ -4402,7 +4402,7 @@
     </row>
     <row r="142" spans="1:7">
       <c r="A142">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/python-machine-learning-with-scikit-learn/0642572008419/0642572014146", "0642572014146")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/python-machine-learning-with-scikit-learn/0642572008419/0642572014146", "0642572014146")</f>
         <v>0</v>
       </c>
       <c r="B142" t="s">
@@ -4426,7 +4426,7 @@
     </row>
     <row r="143" spans="1:7">
       <c r="A143">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/rag-and-ai-applications-for-cybersecurity-and-networking-professionals/0642572008474/0642572014233", "0642572014233")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/rag-and-ai-applications-for-cybersecurity-and-networking-professionals/0642572008474/0642572014233", "0642572014233")</f>
         <v>0</v>
       </c>
       <c r="B143" t="s">
@@ -4450,7 +4450,7 @@
     </row>
     <row r="144" spans="1:7">
       <c r="A144">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/fundamentals-of-ansible/0642572000977/0642572012631", "0642572012631")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/fundamentals-of-ansible/0642572000977/0642572012631", "0642572012631")</f>
         <v>0</v>
       </c>
       <c r="B144" t="s">
@@ -4474,7 +4474,7 @@
     </row>
     <row r="145" spans="1:7">
       <c r="A145">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/chatgpt-for-software-engineers/0636920090062/0642572012935", "0642572012935")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/chatgpt-for-software-engineers/0636920090062/0642572012935", "0642572012935")</f>
         <v>0</v>
       </c>
       <c r="B145" t="s">
@@ -4498,7 +4498,7 @@
     </row>
     <row r="146" spans="1:7">
       <c r="A146">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/leadership-communication-skills-for-managers/0636920054671/0642572011692", "0642572011692")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/leadership-communication-skills-for-managers/0636920054671/0642572011692", "0642572011692")</f>
         <v>0</v>
       </c>
       <c r="B146" t="s">
@@ -4522,7 +4522,7 @@
     </row>
     <row r="147" spans="1:7">
       <c r="A147">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/write-python-code-with-chatgpt-and-claude/0642572013449/0642572013448", "0642572013448")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/write-python-code-with-chatgpt-and-claude/0642572013449/0642572013448", "0642572013448")</f>
         <v>0</v>
       </c>
       <c r="B147" t="s">
@@ -4546,7 +4546,7 @@
     </row>
     <row r="148" spans="1:7">
       <c r="A148">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/bias-and-fairness-in-data-and-ai/0642572013881/0642572013880", "0642572013880")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/bias-and-fairness-in-data-and-ai/0642572013881/0642572013880", "0642572013880")</f>
         <v>0</v>
       </c>
       <c r="B148" t="s">
@@ -4570,7 +4570,7 @@
     </row>
     <row r="149" spans="1:7">
       <c r="A149">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/how-llms-work/0790145066962/0642572010489", "0642572010489")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/how-llms-work/0790145066962/0642572010489", "0642572010489")</f>
         <v>0</v>
       </c>
       <c r="B149" t="s">
@@ -4594,7 +4594,7 @@
     </row>
     <row r="150" spans="1:7">
       <c r="A150">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/modern-java-testing-with-junit-5-and-assertj/0642572014302/0642572014301", "0642572014301")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/modern-java-testing-with-junit-5-and-assertj/0642572014302/0642572014301", "0642572014301")</f>
         <v>0</v>
       </c>
       <c r="B150" t="s">
@@ -4618,7 +4618,7 @@
     </row>
     <row r="151" spans="1:7">
       <c r="A151">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/chatgpt-for-project-management/0790145085649/0642572009109", "0642572009109")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/chatgpt-for-project-management/0790145085649/0642572009109", "0642572009109")</f>
         <v>0</v>
       </c>
       <c r="B151" t="s">
@@ -4642,7 +4642,7 @@
     </row>
     <row r="152" spans="1:7">
       <c r="A152">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/iterative-architecture-by-example/0790145082232/0642572015138", "0642572015138")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/iterative-architecture-by-example/0790145082232/0642572015138", "0642572015138")</f>
         <v>0</v>
       </c>
       <c r="B152" t="s">
@@ -4666,7 +4666,7 @@
     </row>
     <row r="153" spans="1:7">
       <c r="A153">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/building-simple-web-apps-with-ai-tools/0642572013427/0642572013426", "0642572013426")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/building-simple-web-apps-with-ai-tools/0642572013427/0642572013426", "0642572013426")</f>
         <v>0</v>
       </c>
       <c r="B153" t="s">
@@ -4690,7 +4690,7 @@
     </row>
     <row r="154" spans="1:7">
       <c r="A154">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/artificial-intelligence/0636920054812/0642572011880", "0642572011880")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/artificial-intelligence/0636920054812/0642572011880", "0642572011880")</f>
         <v>0</v>
       </c>
       <c r="B154" t="s">
@@ -4714,7 +4714,7 @@
     </row>
     <row r="155" spans="1:7">
       <c r="A155">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/genai-and-llms-for-product-managers/0636920099564/0642572009539", "0642572009539")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/genai-and-llms-for-product-managers/0636920099564/0642572009539", "0642572009539")</f>
         <v>0</v>
       </c>
       <c r="B155" t="s">
@@ -4738,7 +4738,7 @@
     </row>
     <row r="156" spans="1:7">
       <c r="A156">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/prompting-bootcamp/0636920097098/0642572010296", "0642572010296")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/prompting-bootcamp/0636920097098/0642572010296", "0642572010296")</f>
         <v>0</v>
       </c>
       <c r="B156" t="s">
@@ -4762,7 +4762,7 @@
     </row>
     <row r="157" spans="1:7">
       <c r="A157">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/perfecting-your-chatgpt-prompts/0642572007492/0642572010473", "0642572010473")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/perfecting-your-chatgpt-prompts/0642572007492/0642572010473", "0642572010473")</f>
         <v>0</v>
       </c>
       <c r="B157" t="s">
@@ -4786,7 +4786,7 @@
     </row>
     <row r="158" spans="1:7">
       <c r="A158">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/using-generative-ai-to-land-your-next-job/0790145067802/0642572009510", "0642572009510")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/using-generative-ai-to-land-your-next-job/0790145067802/0642572009510", "0642572009510")</f>
         <v>0</v>
       </c>
       <c r="B158" t="s">
@@ -4810,7 +4810,7 @@
     </row>
     <row r="159" spans="1:7">
       <c r="A159">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/python-in-5-weeks-python-programming-for-beginnerswith-interactivity/0636920054111/0642572011276", "0642572011276")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/python-in-5-weeks-python-programming-for-beginnerswith-interactivity/0636920054111/0642572011276", "0642572011276")</f>
         <v>0</v>
       </c>
       <c r="B159" t="s">
@@ -4834,7 +4834,7 @@
     </row>
     <row r="160" spans="1:7">
       <c r="A160">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/using-generative-ai-to-boost-your-personal-productivity/0636920099736/0642572009052", "0642572009052")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/using-generative-ai-to-boost-your-personal-productivity/0636920099736/0642572009052", "0642572009052")</f>
         <v>0</v>
       </c>
       <c r="B160" t="s">
@@ -4858,7 +4858,7 @@
     </row>
     <row r="161" spans="1:7">
       <c r="A161">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/introduction-to-technical-product-management/0636920385462/0642572015004", "0642572015004")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/introduction-to-technical-product-management/0636920385462/0642572015004", "0642572015004")</f>
         <v>0</v>
       </c>
       <c r="B161" t="s">
@@ -4882,7 +4882,7 @@
     </row>
     <row r="162" spans="1:7">
       <c r="A162">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/prompt-engineering-for-generating-ai-art-and-text/0636920084340/0642572009579", "0642572009579")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/prompt-engineering-for-generating-ai-art-and-text/0636920084340/0642572009579", "0642572009579")</f>
         <v>0</v>
       </c>
       <c r="B162" t="s">
@@ -4906,7 +4906,7 @@
     </row>
     <row r="163" spans="1:7">
       <c r="A163">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/generative-ai-for-project-management/0636920097360/0642572014638", "0642572014638")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/generative-ai-for-project-management/0636920097360/0642572014638", "0642572014638")</f>
         <v>0</v>
       </c>
       <c r="B163" t="s">
@@ -4930,7 +4930,7 @@
     </row>
     <row r="164" spans="1:7">
       <c r="A164">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/choosing-the-right-llm/0642572002832/0642572010497", "0642572010497")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/choosing-the-right-llm/0642572002832/0642572010497", "0642572010497")</f>
         <v>0</v>
       </c>
       <c r="B164" t="s">
@@ -4954,7 +4954,7 @@
     </row>
     <row r="165" spans="1:7">
       <c r="A165">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/copilot-for-microsoft-365/0642572007490/0642572009991", "0642572009991")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/copilot-for-microsoft-365/0642572007490/0642572009991", "0642572009991")</f>
         <v>0</v>
       </c>
       <c r="B165" t="s">
@@ -4978,7 +4978,7 @@
     </row>
     <row r="166" spans="1:7">
       <c r="A166">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/product-design-with-genai/0642572003764/0642572009690", "0642572009690")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/product-design-with-genai/0642572003764/0642572009690", "0642572009690")</f>
         <v>0</v>
       </c>
       <c r="B166" t="s">
@@ -5002,7 +5002,7 @@
     </row>
     <row r="167" spans="1:7">
       <c r="A167">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/sql-next-steps-optimization/0636920378389/0642572015359", "0642572015359")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/sql-next-steps-optimization/0636920378389/0642572015359", "0642572015359")</f>
         <v>0</v>
       </c>
       <c r="B167" t="s">
@@ -5026,7 +5026,7 @@
     </row>
     <row r="168" spans="1:7">
       <c r="A168">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/generative-ai-for-everyone/0636920097025/0642572009303", "0642572009303")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/generative-ai-for-everyone/0636920097025/0642572009303", "0642572009303")</f>
         <v>0</v>
       </c>
       <c r="B168" t="s">
@@ -5050,7 +5050,7 @@
     </row>
     <row r="169" spans="1:7">
       <c r="A169">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/chatgpt-to-improve-your-writing/0636920097362/0642572009092", "0642572009092")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/chatgpt-to-improve-your-writing/0636920097362/0642572009092", "0642572009092")</f>
         <v>0</v>
       </c>
       <c r="B169" t="s">
@@ -5074,7 +5074,7 @@
     </row>
     <row r="170" spans="1:7">
       <c r="A170">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/generative-ai-for-business-analysts-in-60-minutes/0642572002743/0642572009740", "0642572009740")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/generative-ai-for-business-analysts-in-60-minutes/0642572002743/0642572009740", "0642572009740")</f>
         <v>0</v>
       </c>
       <c r="B170" t="s">
@@ -5098,7 +5098,7 @@
     </row>
     <row r="171" spans="1:7">
       <c r="A171">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/writing-effective-prompts-for-chatgpt/0636920090058/0642572009674", "0642572009674")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/writing-effective-prompts-for-chatgpt/0636920090058/0642572009674", "0642572009674")</f>
         <v>0</v>
       </c>
       <c r="B171" t="s">
@@ -5122,7 +5122,7 @@
     </row>
     <row r="172" spans="1:7">
       <c r="A172">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/cursor-for-software-engineers/0642572012981/0642572014700", "0642572014700")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/cursor-for-software-engineers/0642572012981/0642572014700", "0642572014700")</f>
         <v>0</v>
       </c>
       <c r="B172" t="s">
@@ -5146,7 +5146,7 @@
     </row>
     <row r="173" spans="1:7">
       <c r="A173">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/infrastructure-ops-superstream-ai-infrastructure/0642572013986/0642572013985", "0642572013985")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/infrastructure-ops-superstream-ai-infrastructure/0642572013986/0642572013985", "0642572013985")</f>
         <v>0</v>
       </c>
       <c r="B173" t="s">
@@ -5167,7 +5167,7 @@
     </row>
     <row r="174" spans="1:7">
       <c r="A174">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/chatgpt-for-project-management/0790145085649/0642572009114", "0642572009114")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/chatgpt-for-project-management/0790145085649/0642572009114", "0642572009114")</f>
         <v>0</v>
       </c>
       <c r="B174" t="s">
@@ -5191,7 +5191,7 @@
     </row>
     <row r="175" spans="1:7">
       <c r="A175">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/generative-ai-for-presentations/0642572010259/0642572010280", "0642572010280")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/generative-ai-for-presentations/0642572010259/0642572010280", "0642572010280")</f>
         <v>0</v>
       </c>
       <c r="B175" t="s">
@@ -5215,7 +5215,7 @@
     </row>
     <row r="176" spans="1:7">
       <c r="A176">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/prompting-bootcamp/0636920097098/0642572010302", "0642572010302")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/prompting-bootcamp/0636920097098/0642572010302", "0642572010302")</f>
         <v>0</v>
       </c>
       <c r="B176" t="s">
@@ -5239,7 +5239,7 @@
     </row>
     <row r="177" spans="1:7">
       <c r="A177">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/software-architecture-superstream-communicating-software-architecture/0642572014524/0642572014523", "0642572014523")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/software-architecture-superstream-communicating-software-architecture/0642572014524/0642572014523", "0642572014523")</f>
         <v>0</v>
       </c>
       <c r="B177" t="s">
@@ -5263,7 +5263,7 @@
     </row>
     <row r="178" spans="1:7">
       <c r="A178">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/genai-superstream-generative-ai-for-data-analysis/0642572015364/0642572015363", "0642572015363")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/genai-superstream-generative-ai-for-data-analysis/0642572015364/0642572015363", "0642572015363")</f>
         <v>0</v>
       </c>
       <c r="B178" t="s">
@@ -5284,7 +5284,7 @@
     </row>
     <row r="179" spans="1:7">
       <c r="A179">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/agile-analysis-and-planning/0636920061988/0642572014247", "0642572014247")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/agile-analysis-and-planning/0636920061988/0642572014247", "0642572014247")</f>
         <v>0</v>
       </c>
       <c r="B179" t="s">
@@ -5308,7 +5308,7 @@
     </row>
     <row r="180" spans="1:7">
       <c r="A180">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/comptia-security-certification-sy0-701-bootcamp/0790145080680/0642572010931", "0642572010931")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/comptia-security-certification-sy0-701-bootcamp/0790145080680/0642572010931", "0642572010931")</f>
         <v>0</v>
       </c>
       <c r="B180" t="s">
@@ -5332,7 +5332,7 @@
     </row>
     <row r="181" spans="1:7">
       <c r="A181">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/getting-smart-about-goals/0636920291053/0642572014027", "0642572014027")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/getting-smart-about-goals/0636920291053/0642572014027", "0642572014027")</f>
         <v>0</v>
       </c>
       <c r="B181" t="s">
@@ -5356,7 +5356,7 @@
     </row>
     <row r="182" spans="1:7">
       <c r="A182">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/git-next-steps/0636920457459/0642572012639", "0642572012639")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/git-next-steps/0636920457459/0642572012639", "0642572012639")</f>
         <v>0</v>
       </c>
       <c r="B182" t="s">
@@ -5380,7 +5380,7 @@
     </row>
     <row r="183" spans="1:7">
       <c r="A183">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/automated-machine-learning-and-deep-learning-with-python/0636920064090/0642572013767", "0642572013767")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/automated-machine-learning-and-deep-learning-with-python/0636920064090/0642572013767", "0642572013767")</f>
         <v>0</v>
       </c>
       <c r="B183" t="s">
@@ -5404,7 +5404,7 @@
     </row>
     <row r="184" spans="1:7">
       <c r="A184">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/using-llms-for-software-engineering/0790145068817/0642572011134", "0642572011134")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/using-llms-for-software-engineering/0790145068817/0642572011134", "0642572011134")</f>
         <v>0</v>
       </c>
       <c r="B184" t="s">
@@ -5428,7 +5428,7 @@
     </row>
     <row r="185" spans="1:7">
       <c r="A185">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/generative-ai-apis/0642572011171/0642572014354", "0642572014354")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/generative-ai-apis/0642572011171/0642572014354", "0642572014354")</f>
         <v>0</v>
       </c>
       <c r="B185" t="s">
@@ -5452,7 +5452,7 @@
     </row>
     <row r="186" spans="1:7">
       <c r="A186">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/javascript-bootcamp/0790145084898/0642572014368", "0642572014368")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/javascript-bootcamp/0790145084898/0642572014368", "0642572014368")</f>
         <v>0</v>
       </c>
       <c r="B186" t="s">
@@ -5476,7 +5476,7 @@
     </row>
     <row r="187" spans="1:7">
       <c r="A187">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/generative-ai-for-business-analysts-in-60-minutes/0642572002743/0642572009736", "0642572009736")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/generative-ai-for-business-analysts-in-60-minutes/0642572002743/0642572009736", "0642572009736")</f>
         <v>0</v>
       </c>
       <c r="B187" t="s">
@@ -5500,7 +5500,7 @@
     </row>
     <row r="188" spans="1:7">
       <c r="A188">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/ai-powered-web-applications/0642572014610/0642572014609", "0642572014609")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/ai-powered-web-applications/0642572014610/0642572014609", "0642572014609")</f>
         <v>0</v>
       </c>
       <c r="B188" t="s">
@@ -5524,7 +5524,7 @@
     </row>
     <row r="189" spans="1:7">
       <c r="A189">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/generative-ai-for-leaders-and-managers/0642572010775/0642572010781", "0642572010781")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/generative-ai-for-leaders-and-managers/0642572010775/0642572010781", "0642572010781")</f>
         <v>0</v>
       </c>
       <c r="B189" t="s">
@@ -5548,7 +5548,7 @@
     </row>
     <row r="190" spans="1:7">
       <c r="A190">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/building-microservices-with-containers-kubernetes-and-istio/0636920408468/0642572014189", "0642572014189")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/building-microservices-with-containers-kubernetes-and-istio/0636920408468/0642572014189", "0642572014189")</f>
         <v>0</v>
       </c>
       <c r="B190" t="s">
@@ -5572,7 +5572,7 @@
     </row>
     <row r="191" spans="1:7">
       <c r="A191">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/terraform-getting-started/0636920060088/0642572010441", "0642572010441")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/terraform-getting-started/0636920060088/0642572010441", "0642572010441")</f>
         <v>0</v>
       </c>
       <c r="B191" t="s">
@@ -5596,7 +5596,7 @@
     </row>
     <row r="192" spans="1:7">
       <c r="A192">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/building-enterprise-apps-with-react/0636920064014/0642572014142", "0642572014142")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/building-enterprise-apps-with-react/0636920064014/0642572014142", "0642572014142")</f>
         <v>0</v>
       </c>
       <c r="B192" t="s">
@@ -5620,7 +5620,7 @@
     </row>
     <row r="193" spans="1:7">
       <c r="A193">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/comparing-software-architectures/0636920055602/0642572012242", "0642572012242")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/comparing-software-architectures/0636920055602/0642572012242", "0642572012242")</f>
         <v>0</v>
       </c>
       <c r="B193" t="s">
@@ -5644,7 +5644,7 @@
     </row>
     <row r="194" spans="1:7">
       <c r="A194">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/spring-and-spring-boot-in-3-weeks/0636920055088/0642572014071", "0642572014071")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/spring-and-spring-boot-in-3-weeks/0636920055088/0642572014071", "0642572014071")</f>
         <v>0</v>
       </c>
       <c r="B194" t="s">
@@ -5668,7 +5668,7 @@
     </row>
     <row r="195" spans="1:7">
       <c r="A195">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/generative-ai-for-everyone/0636920097025/0642572009299", "0642572009299")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/generative-ai-for-everyone/0636920097025/0642572009299", "0642572009299")</f>
         <v>0</v>
       </c>
       <c r="B195" t="s">
@@ -5692,7 +5692,7 @@
     </row>
     <row r="196" spans="1:7">
       <c r="A196">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/identity-and-access-management-fundamentals/0636920051144/0642572013676", "0642572013676")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/identity-and-access-management-fundamentals/0636920051144/0642572013676", "0642572013676")</f>
         <v>0</v>
       </c>
       <c r="B196" t="s">
@@ -5716,7 +5716,7 @@
     </row>
     <row r="197" spans="1:7">
       <c r="A197">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/kubernetes-fundamentals-in-2-weekswith-interactivity/0642572005386/0642572013993", "0642572013993")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/kubernetes-fundamentals-in-2-weekswith-interactivity/0642572005386/0642572013993", "0642572013993")</f>
         <v>0</v>
       </c>
       <c r="B197" t="s">
@@ -5740,7 +5740,7 @@
     </row>
     <row r="198" spans="1:7">
       <c r="A198">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/event-driven-architecture-and-data-boot-camp/0642572012410/0642572012409", "0642572012409")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/event-driven-architecture-and-data-boot-camp/0642572012410/0642572012409", "0642572012409")</f>
         <v>0</v>
       </c>
       <c r="B198" t="s">
@@ -5764,7 +5764,7 @@
     </row>
     <row r="199" spans="1:7">
       <c r="A199">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/fundamentals-of-learning-learn-faster-and-better-using-neuroscience/0636920064594/0642572014257", "0642572014257")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/fundamentals-of-learning-learn-faster-and-better-using-neuroscience/0636920064594/0642572014257", "0642572014257")</f>
         <v>0</v>
       </c>
       <c r="B199" t="s">
@@ -5788,7 +5788,7 @@
     </row>
     <row r="200" spans="1:7">
       <c r="A200">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/threat-hunting-with-wireshark-for-secops/0636920087438/0642572014285", "0642572014285")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/threat-hunting-with-wireshark-for-secops/0636920087438/0642572014285", "0642572014285")</f>
         <v>0</v>
       </c>
       <c r="B200" t="s">
@@ -5812,7 +5812,7 @@
     </row>
     <row r="201" spans="1:7">
       <c r="A201">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/python-machine-learning-with-scikit-learn/0642572008419/0642572014146", "0642572014146")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/python-machine-learning-with-scikit-learn/0642572008419/0642572014146", "0642572014146")</f>
         <v>0</v>
       </c>
       <c r="B201" t="s">
@@ -5836,7 +5836,7 @@
     </row>
     <row r="202" spans="1:7">
       <c r="A202">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/rag-and-ai-applications-for-cybersecurity-and-networking-professionals/0642572008474/0642572014233", "0642572014233")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/rag-and-ai-applications-for-cybersecurity-and-networking-professionals/0642572008474/0642572014233", "0642572014233")</f>
         <v>0</v>
       </c>
       <c r="B202" t="s">
@@ -5860,7 +5860,7 @@
     </row>
     <row r="203" spans="1:7">
       <c r="A203">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/fundamentals-of-ansible/0642572000977/0642572012631", "0642572012631")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/fundamentals-of-ansible/0642572000977/0642572012631", "0642572012631")</f>
         <v>0</v>
       </c>
       <c r="B203" t="s">
@@ -5884,7 +5884,7 @@
     </row>
     <row r="204" spans="1:7">
       <c r="A204">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/chatgpt-for-software-engineers/0636920090062/0642572012935", "0642572012935")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/chatgpt-for-software-engineers/0636920090062/0642572012935", "0642572012935")</f>
         <v>0</v>
       </c>
       <c r="B204" t="s">
@@ -5908,7 +5908,7 @@
     </row>
     <row r="205" spans="1:7">
       <c r="A205">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/leadership-communication-skills-for-managers/0636920054671/0642572011692", "0642572011692")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/leadership-communication-skills-for-managers/0636920054671/0642572011692", "0642572011692")</f>
         <v>0</v>
       </c>
       <c r="B205" t="s">
@@ -5932,7 +5932,7 @@
     </row>
     <row r="206" spans="1:7">
       <c r="A206">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/write-python-code-with-chatgpt-and-claude/0642572013449/0642572013448", "0642572013448")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/write-python-code-with-chatgpt-and-claude/0642572013449/0642572013448", "0642572013448")</f>
         <v>0</v>
       </c>
       <c r="B206" t="s">
@@ -5956,7 +5956,7 @@
     </row>
     <row r="207" spans="1:7">
       <c r="A207">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/bias-and-fairness-in-data-and-ai/0642572013881/0642572013880", "0642572013880")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/bias-and-fairness-in-data-and-ai/0642572013881/0642572013880", "0642572013880")</f>
         <v>0</v>
       </c>
       <c r="B207" t="s">
@@ -5980,7 +5980,7 @@
     </row>
     <row r="208" spans="1:7">
       <c r="A208">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/how-llms-work/0790145066962/0642572010489", "0642572010489")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/how-llms-work/0790145066962/0642572010489", "0642572010489")</f>
         <v>0</v>
       </c>
       <c r="B208" t="s">
@@ -6004,7 +6004,7 @@
     </row>
     <row r="209" spans="1:7">
       <c r="A209">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/modern-java-testing-with-junit-5-and-assertj/0642572014302/0642572014301", "0642572014301")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/modern-java-testing-with-junit-5-and-assertj/0642572014302/0642572014301", "0642572014301")</f>
         <v>0</v>
       </c>
       <c r="B209" t="s">
@@ -6028,7 +6028,7 @@
     </row>
     <row r="210" spans="1:7">
       <c r="A210">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/chatgpt-for-project-management/0790145085649/0642572009109", "0642572009109")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/chatgpt-for-project-management/0790145085649/0642572009109", "0642572009109")</f>
         <v>0</v>
       </c>
       <c r="B210" t="s">
@@ -6052,7 +6052,7 @@
     </row>
     <row r="211" spans="1:7">
       <c r="A211">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/iterative-architecture-by-example/0790145082232/0642572015138", "0642572015138")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/iterative-architecture-by-example/0790145082232/0642572015138", "0642572015138")</f>
         <v>0</v>
       </c>
       <c r="B211" t="s">
@@ -6076,7 +6076,7 @@
     </row>
     <row r="212" spans="1:7">
       <c r="A212">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/building-simple-web-apps-with-ai-tools/0642572013427/0642572013426", "0642572013426")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/building-simple-web-apps-with-ai-tools/0642572013427/0642572013426", "0642572013426")</f>
         <v>0</v>
       </c>
       <c r="B212" t="s">
@@ -6100,7 +6100,7 @@
     </row>
     <row r="213" spans="1:7">
       <c r="A213">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/artificial-intelligence/0636920054812/0642572011880", "0642572011880")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/artificial-intelligence/0636920054812/0642572011880", "0642572011880")</f>
         <v>0</v>
       </c>
       <c r="B213" t="s">
@@ -6124,7 +6124,7 @@
     </row>
     <row r="214" spans="1:7">
       <c r="A214">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/genai-and-llms-for-product-managers/0636920099564/0642572009539", "0642572009539")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/genai-and-llms-for-product-managers/0636920099564/0642572009539", "0642572009539")</f>
         <v>0</v>
       </c>
       <c r="B214" t="s">
@@ -6148,7 +6148,7 @@
     </row>
     <row r="215" spans="1:7">
       <c r="A215">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/prompting-bootcamp/0636920097098/0642572010296", "0642572010296")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/prompting-bootcamp/0636920097098/0642572010296", "0642572010296")</f>
         <v>0</v>
       </c>
       <c r="B215" t="s">
@@ -6172,7 +6172,7 @@
     </row>
     <row r="216" spans="1:7">
       <c r="A216">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/perfecting-your-chatgpt-prompts/0642572007492/0642572010473", "0642572010473")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/perfecting-your-chatgpt-prompts/0642572007492/0642572010473", "0642572010473")</f>
         <v>0</v>
       </c>
       <c r="B216" t="s">
@@ -6196,7 +6196,7 @@
     </row>
     <row r="217" spans="1:7">
       <c r="A217">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/using-generative-ai-to-land-your-next-job/0790145067802/0642572009510", "0642572009510")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/using-generative-ai-to-land-your-next-job/0790145067802/0642572009510", "0642572009510")</f>
         <v>0</v>
       </c>
       <c r="B217" t="s">
@@ -6220,7 +6220,7 @@
     </row>
     <row r="218" spans="1:7">
       <c r="A218">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/python-in-5-weeks-python-programming-for-beginnerswith-interactivity/0636920054111/0642572011276", "0642572011276")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/python-in-5-weeks-python-programming-for-beginnerswith-interactivity/0636920054111/0642572011276", "0642572011276")</f>
         <v>0</v>
       </c>
       <c r="B218" t="s">
@@ -6244,7 +6244,7 @@
     </row>
     <row r="219" spans="1:7">
       <c r="A219">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/using-generative-ai-to-boost-your-personal-productivity/0636920099736/0642572009052", "0642572009052")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/using-generative-ai-to-boost-your-personal-productivity/0636920099736/0642572009052", "0642572009052")</f>
         <v>0</v>
       </c>
       <c r="B219" t="s">
@@ -6268,7 +6268,7 @@
     </row>
     <row r="220" spans="1:7">
       <c r="A220">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/introduction-to-technical-product-management/0636920385462/0642572015004", "0642572015004")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/introduction-to-technical-product-management/0636920385462/0642572015004", "0642572015004")</f>
         <v>0</v>
       </c>
       <c r="B220" t="s">
@@ -6292,7 +6292,7 @@
     </row>
     <row r="221" spans="1:7">
       <c r="A221">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/prompt-engineering-for-generating-ai-art-and-text/0636920084340/0642572009579", "0642572009579")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/prompt-engineering-for-generating-ai-art-and-text/0636920084340/0642572009579", "0642572009579")</f>
         <v>0</v>
       </c>
       <c r="B221" t="s">
@@ -6316,7 +6316,7 @@
     </row>
     <row r="222" spans="1:7">
       <c r="A222">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/generative-ai-for-project-management/0636920097360/0642572014638", "0642572014638")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/generative-ai-for-project-management/0636920097360/0642572014638", "0642572014638")</f>
         <v>0</v>
       </c>
       <c r="B222" t="s">
@@ -6340,7 +6340,7 @@
     </row>
     <row r="223" spans="1:7">
       <c r="A223">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/choosing-the-right-llm/0642572002832/0642572010497", "0642572010497")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/choosing-the-right-llm/0642572002832/0642572010497", "0642572010497")</f>
         <v>0</v>
       </c>
       <c r="B223" t="s">
@@ -6364,7 +6364,7 @@
     </row>
     <row r="224" spans="1:7">
       <c r="A224">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/copilot-for-microsoft-365/0642572007490/0642572009991", "0642572009991")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/copilot-for-microsoft-365/0642572007490/0642572009991", "0642572009991")</f>
         <v>0</v>
       </c>
       <c r="B224" t="s">
@@ -6388,7 +6388,7 @@
     </row>
     <row r="225" spans="1:7">
       <c r="A225">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/product-design-with-genai/0642572003764/0642572009690", "0642572009690")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/product-design-with-genai/0642572003764/0642572009690", "0642572009690")</f>
         <v>0</v>
       </c>
       <c r="B225" t="s">
@@ -6412,7 +6412,7 @@
     </row>
     <row r="226" spans="1:7">
       <c r="A226">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/sql-next-steps-optimization/0636920378389/0642572015359", "0642572015359")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/sql-next-steps-optimization/0636920378389/0642572015359", "0642572015359")</f>
         <v>0</v>
       </c>
       <c r="B226" t="s">
@@ -6436,7 +6436,7 @@
     </row>
     <row r="227" spans="1:7">
       <c r="A227">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/generative-ai-for-everyone/0636920097025/0642572009303", "0642572009303")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/generative-ai-for-everyone/0636920097025/0642572009303", "0642572009303")</f>
         <v>0</v>
       </c>
       <c r="B227" t="s">
@@ -6460,7 +6460,7 @@
     </row>
     <row r="228" spans="1:7">
       <c r="A228">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/chatgpt-to-improve-your-writing/0636920097362/0642572009092", "0642572009092")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/chatgpt-to-improve-your-writing/0636920097362/0642572009092", "0642572009092")</f>
         <v>0</v>
       </c>
       <c r="B228" t="s">
@@ -6484,7 +6484,7 @@
     </row>
     <row r="229" spans="1:7">
       <c r="A229">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/generative-ai-for-business-analysts-in-60-minutes/0642572002743/0642572009740", "0642572009740")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/generative-ai-for-business-analysts-in-60-minutes/0642572002743/0642572009740", "0642572009740")</f>
         <v>0</v>
       </c>
       <c r="B229" t="s">
@@ -6508,7 +6508,7 @@
     </row>
     <row r="230" spans="1:7">
       <c r="A230">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/writing-effective-prompts-for-chatgpt/0636920090058/0642572009674", "0642572009674")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/writing-effective-prompts-for-chatgpt/0636920090058/0642572009674", "0642572009674")</f>
         <v>0</v>
       </c>
       <c r="B230" t="s">
@@ -6532,7 +6532,7 @@
     </row>
     <row r="231" spans="1:7">
       <c r="A231">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/cursor-for-software-engineers/0642572012981/0642572014700", "0642572014700")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/cursor-for-software-engineers/0642572012981/0642572014700", "0642572014700")</f>
         <v>0</v>
       </c>
       <c r="B231" t="s">
@@ -6556,7 +6556,7 @@
     </row>
     <row r="232" spans="1:7">
       <c r="A232">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/infrastructure-ops-superstream-ai-infrastructure/0642572013986/0642572013985", "0642572013985")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/infrastructure-ops-superstream-ai-infrastructure/0642572013986/0642572013985", "0642572013985")</f>
         <v>0</v>
       </c>
       <c r="B232" t="s">
@@ -6577,7 +6577,7 @@
     </row>
     <row r="233" spans="1:7">
       <c r="A233">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/chatgpt-for-project-management/0790145085649/0642572009114", "0642572009114")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/chatgpt-for-project-management/0790145085649/0642572009114", "0642572009114")</f>
         <v>0</v>
       </c>
       <c r="B233" t="s">
@@ -6601,7 +6601,7 @@
     </row>
     <row r="234" spans="1:7">
       <c r="A234">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/generative-ai-for-presentations/0642572010259/0642572010280", "0642572010280")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/generative-ai-for-presentations/0642572010259/0642572010280", "0642572010280")</f>
         <v>0</v>
       </c>
       <c r="B234" t="s">
@@ -6625,7 +6625,7 @@
     </row>
     <row r="235" spans="1:7">
       <c r="A235">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/prompting-bootcamp/0636920097098/0642572010302", "0642572010302")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/prompting-bootcamp/0636920097098/0642572010302", "0642572010302")</f>
         <v>0</v>
       </c>
       <c r="B235" t="s">
@@ -6649,7 +6649,7 @@
     </row>
     <row r="236" spans="1:7">
       <c r="A236">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/software-architecture-superstream-communicating-software-architecture/0642572014524/0642572014523", "0642572014523")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/software-architecture-superstream-communicating-software-architecture/0642572014524/0642572014523", "0642572014523")</f>
         <v>0</v>
       </c>
       <c r="B236" t="s">
@@ -6673,7 +6673,7 @@
     </row>
     <row r="237" spans="1:7">
       <c r="A237">
-        <f>HYPERLINK("https://learning.oreilly.com/live-events/genai-superstream-generative-ai-for-data-analysis/0642572015364/0642572015363", "0642572015363")</f>
+        <f>HYPERLINK("learning.oreilly.com/live-events/genai-superstream-generative-ai-for-data-analysis/0642572015364/0642572015363", "0642572015363")</f>
         <v>0</v>
       </c>
       <c r="B237" t="s">
